--- a/supplementary-material/inputs/barriers_facilitators.xlsx
+++ b/supplementary-material/inputs/barriers_facilitators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dtay0016/dev/youth-homelessness-review/supplementary-material/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE4F6FC-A905-9347-93E7-0B08D1BB94D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC23B73-8523-A74B-87C2-DA318DAE3C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{B018053F-F96A-944D-B10D-B779B6F5D957}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{B018053F-F96A-944D-B10D-B779B6F5D957}"/>
   </bookViews>
   <sheets>
     <sheet name="barriers_facilitators" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
   <si>
     <t>EPIS domain</t>
   </si>
@@ -72,39 +72,6 @@
   </si>
   <si>
     <t>The strength of existing services in the community was a key factor in the project’s success [@nelson2012implementationfidelityevaluation; @nelson2014earlyimplementationevaluation].</t>
-  </si>
-  <si>
-    <t>Some sites faced challenges in completing proposals due to a lack of a local housing and homelessness services infrastructure, leadership, service capacity, or human resources [@nelson2013planningmultisitecomplex].  
-Sites who were otherwise well equipped felt they had insufficient time to consult with the existing service providers during the proposal phase [@nelson2013planningmultisitecomplex].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discomfort arose for national stakeholders regarding the project’s relationship to existing local services, particularly the head-to-head comparisons between the externally developed interventions, Housing First and local approaches [@nelson2013planningmultisitecomplex].
-Designing training that was relevant across sites proved challenging due to the heterogenous skills and capabilities of participants and the varying local, social and systemic factors unique to each location [@nelson2012implementationfidelityevaluation].
-Poor communication about the limited scope for local adaptation affected staff buy-in to the intervention [@nelson2013planningmultisitecomplex].
-Challenges were faced in hiring culturally competent staff to accommodate the needs of Aboriginal participants in the program [@nelson2012implementationfidelityevaluation; @nelson2014earlyimplementationevaluation] .
-Tight timelines impacted ability to engage staff with lived experience in the development of the intervention, and led to issues such as mistrust and poor communication between sites and head office [@nelson2013planningmultisitecomplex].  </t>
-  </si>
-  <si>
-    <t>Stakeholders deemed the program a valuable opportunity with potential for transformative change, and the initial excitement and enthusiasm were beneficial for moving the project forward [@nelson2013planningmultisitecomplex].
-The community valued collaboration and collective effort which aligned with the project [@nelson2012implementationfidelityevaluation].
-Recruiting consumers in a manner that allowed them to maintain existing service relationships with established community service providers was important [@nelson2012implementationfidelityevaluation] .
-Collaboration between project programs and the major shelters facilitated recruitment of participants [@nelson2012implementationfidelityevaluation].</t>
-  </si>
-  <si>
-    <t>Across sites, participants highlighted the importance of having a diverse group of partners in providing a comprehensive continuum of care to participants [@nelson2012implementationfidelityevaluation].
-Partnerships with consumers enabled peer-driven initiatives like social gatherings, peer support programs for individuals with substance use issues, participant-produced newsletters, and participant-led focus groups on eviction prevention. Consumers could help fellow consumers and offer staff insider information about community resources [@nelson2012implementationfidelityevaluation; @nelson2014earlyimplementationevaluation].</t>
-  </si>
-  <si>
-    <t>Participants stated that local partners, including business owners, police, hospital staff, community mental health teams, shelters, meal providers, churches, the United Way, and mobile crisis teams, were crucial in contributing expertise and experience. This increased the project’s ability to integrate into the community’s network of supports and services [@nelson2012implementationfidelityevaluation; @nelson2014earlyimplementationevaluation].
-The small size of the community facilitated easier contact and collaboration with existing community service providers, enabling efficient information transfer among professionals, the public and potential participants [@nelson2012implementationfidelityevaluation].
-Training and technical assistance provided by the Mental Health Commission of Canada were responsive, fair, generous and supportive. Positive and productive communication, funding, practical guidance and training opportunities were beneficial [@nelson2012implementationfidelityevaluation; @nelson2014earlyimplementationevaluation].</t>
-  </si>
-  <si>
-    <t>Program costs were identified as a barrier to program sustainability [@nelson2012implementationfidelityevaluation]</t>
-  </si>
-  <si>
-    <t>Partnerships with government agencies and departments enhanced the project’s ability to secure consumer access to housing units, mental health and homelessness services, and government income supports [@nelson2012implementationfidelityevaluation; @nelson2014earlyimplementationevaluation].
-Rent subsidies, housing team procurement strategies and a community of relationships were crucial in both expanding potential housing supply and achieving quicker access to housing [@macnaughton2012exploringvaluemixed].</t>
   </si>
   <si>
     <t>There was insufficient planning and discussion on how to assist people not doing well in the program due to the diversity of consumer needs and functioning [@nelson2014earlyimplementationevaluation].
@@ -124,20 +91,10 @@
 Incorporating additional expertise into the team, such as a psychiatrist to support clients with complex needs, or a home economist to help participants develop tenancy skills, was beneficial [@macnaughton2015implementinghousingfirst].</t>
   </si>
   <si>
-    <t xml:space="preserve">The project’s short timeline made landlords more reluctant to sign year-long lease agreements as the project neared its end [@macnaughton2015implementinghousingfirst] </t>
-  </si>
-  <si>
     <t>Forming and maintaining good community partnerships with various stakeholders and existing agencies with various social service systems, (e.g., justice system personnel, employment/income assistance agencies, and wider mental health and substance use systems). These collaborations led host agencies to take “ownership” over the project and this was deemed as potentially important for sustaining the project long-term [@macnaughton2015implementinghousingfirst]</t>
   </si>
   <si>
     <t>Staff demonstrated a high-level of commitment to the project and its values, despite the challenging nature of the work [@macnaughton2015implementinghousingfirst]</t>
-  </si>
-  <si>
-    <t>Housing availability was limited due to a lack of affordability and the reluctance of some housing agencies to risk established relationships with landlords by housing higher-risk Housing First clients [@macnaughton2012exploringvaluemixed; @macnaughton2015implementinghousingfirst; @nelson2012implementationfidelityevaluation; @nelson2014earlyimplementationevaluation]</t>
-  </si>
-  <si>
-    <t>Collaborating with landlords, landlord associations and property management companies was beneficial for implementation. These partnerships: a) made landlords more likely to consult with service team members to resolve issues rather than notifying police or initiating eviction proceedings, and b) led to successful, high quality housing procurement [@macnaughton2015implementinghousingfirst; @nelson2012implementationfidelityevaluation; @nelson2014earlyimplementationevaluation].
-Providing consistent support to landlords, including prompt responses to problematic tenancy issues, paying for any damage, and guaranteeing rent payment, were strong incentives for landlord participation [@macnaughton2015implementinghousingfirst].</t>
   </si>
   <si>
     <t>Effective leaders and strong staff teams with the right combination of technical and interpersonal skills, including decision-making abilities, clear direction, fostering a shared learning, and extensive experience working with various consumer populations, were crucial for success  [@macnaughton2015implementinghousingfirst; @nelson2012implementationfidelityevaluation; @nelson2014earlyimplementationevaluation].
@@ -154,7 +111,13 @@
 COVID pandemic restrictions impacted the ability to have face to face meetings with mentors [@thulien2019evaluatingeffectsrent; @thulien2022effectportablerent].</t>
   </si>
   <si>
-    <t>There was a lack of training and difficulty meeting the cultural and linguistic requirements of diverse populations [@nelson2012implementationfidelityevaluation; @nelson2014earlyimplementationevaluation].
+    <t>Discomfort arose for some stakeholders regarding the project’s relationship to existing local services, particularly the head-to-head comparisons between the externally developed interventions, Housing First and local approaches [@nelson2013planningmultisitecomplex].
+Some sites faced challenges in completing proposals due to a lack of a local housing and homelessness services infrastructure, leadership, service capacity, or human resources [@nelson2013planningmultisitecomplex].  
+Sites who were otherwise well equipped felt they had insufficient time to consult with the existing service providers during the proposal phase [@nelson2013planningmultisitecomplex].</t>
+  </si>
+  <si>
+    <t>The project design made transferring participants between service teams and housing types very difficult, even when a different model would better suit clients’ needs [@nelson2012implementationfidelityevaluation].
+There was a lack of training and difficulty meeting the cultural and linguistic requirements of diverse populations [@nelson2012implementationfidelityevaluation; @nelson2014earlyimplementationevaluation].
 Limited opportunities for informal communication between teams, housing and support services being at different sites, and tensions between support teams due to competition for housing and perceived comparisons of project outcomes hindered collaboration and cohesion [@nelson2012implementationfidelityevaluation; @nelson2014earlyimplementationevaluation].
 High staff turnover was experienced, possibly driven by weak leadership and poor team dynamics [@macnaughton2015implementinghousingfirst].
 Peer specialists were not seen as equal team members and were not meaningfully integrated, with a general lack of communication about their role. One site noted the importance of supporting peers to adopt a full-service role through proper training and workplace support, especially given their susceptibility to re-traumatisation during work [@macnaughton2015implementinghousingfirst; @nelson2012implementationfidelityevaluation]</t>
@@ -164,23 +127,57 @@
 Bottlenecks in the referral process from screening to referral slowed down access to housing [@macnaughton2012exploringvaluemixed].
 ACT and ICM teams needed closer relationships with housing team to better identify and engage yet-to-be housed individuals [@macnaughton2012exploringvaluemixed].
 The lack of a clear governance model sometimes led to delays in obtaining housing for consumers and a lack of cohesion and contact among clinical housing teams [@nelson2014earlyimplementationevaluation].
-The project design made transferring participants between service teams and housing types very difficult, even when a different model would better suit clients’ needs [@nelson2012implementationfidelityevaluation].
-A small sub-group of participants with severe substance use problems experienced continued housing instability [@macnaughton2015implementinghousingfirst].
+There was a lack of after-hours staff support to assist with crisis situations and issues with landlords [@nelson2012implementationfidelityevaluation; @nelson2014earlyimplementationevaluation].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Housing availability was limited due to a lack of affordability and the reluctance of some housing agencies to risk established relationships with landlords by housing higher-risk Housing First clients [@macnaughton2012exploringvaluemixed; @macnaughton2015implementinghousingfirst; @nelson2012implementationfidelityevaluation; @nelson2014earlyimplementationevaluation]
 In small communities, privacy was a concern when certain information about the project or consumers was shared. For example, landlords would sometimes share information about difficult consumers within their network, making it more challenging to secure housing for those individuals [@nelson2012implementationfidelityevaluation].
 Some landlords exhibited stigma and racism, particularly towards Aboriginal people with mental health issues or substance use disorders, which led to them avoiding housing these individuals [@macnaughton2012exploringvaluemixed; @nelson2012implementationfidelityevaluation; @nelson2014earlyimplementationevaluation]
 Program staff had to work hard to sustain/repair relationships with landlords, as they were unable to fulfill all the guarantees that initially attracted them to the program, such as consistent visits with the participants or prompt repairs to damaged property [@nelson2012implementationfidelityevaluation; @nelson2014earlyimplementationevaluation].
-Consumers expressed frustration with some staff practices, including dissatisfaction with home visits due to variety of people dropping in, the volume and repetitiveness of questions asked, and viewed home visits as unnecessary [@nelson2012implementationfidelityevaluation].
-There was a lack of after-hours staff support to assist with crisis situations and issues with landlords [@nelson2012implementationfidelityevaluation; @nelson2014earlyimplementationevaluation].</t>
-  </si>
-  <si>
-    <t>Staff expressed significant concerns about the lack of information regarding project sustainability. They felt a critical need for knowledge dissemination about the steps being taken to ensure that consumers were not abandoned once the research project ended [@nelson2012implementationfidelityevaluation; @nelson2013planningmultisitecomplex].</t>
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designing training that was relevant across sites proved challenging due to the heterogenous skills and capabilities of participants and the varying local, social and systemic factors unique to each location [@nelson2012implementationfidelityevaluation].
+Poor communication about the limited scope for local adaptation affected staff buy-in to the intervention [@nelson2013planningmultisitecomplex].
+Challenges were faced in hiring culturally competent staff to accommodate the needs of Aboriginal participants in the program [@nelson2012implementationfidelityevaluation; @nelson2014earlyimplementationevaluation] .
+Tight timelines impacted ability to engage staff with lived experience in the development of the intervention, and led to issues such as mistrust and poor communication between sites and head office [@nelson2013planningmultisitecomplex].  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short project funding horizon reduced landlords’ willingness to sign year-long leases as the project neared its end [@macnaughton2015implementinghousingfirst] </t>
+  </si>
+  <si>
+    <t>Stakeholders deemed the program a valuable opportunity with potential for transformative change, and the initial excitement and enthusiasm were beneficial for moving the project forward [@nelson2013planningmultisitecomplex].
+The community valued collaboration and collective effort which aligned with the project [@nelson2012implementationfidelityevaluation].
+Recruiting consumers in a manner that allowed them to maintain existing service relationships with established community service providers was important [@nelson2012implementationfidelityevaluation] .
+Collaboration between project programs and the major shelters facilitated recruitment of participants [@nelson2012implementationfidelityevaluation].</t>
+  </si>
+  <si>
+    <t>Program costs were identified as a barrier to program sustainability [@nelson2012implementationfidelityevaluation]
+Staff expressed significant concerns about the lack of information regarding project sustainability. They felt a critical need for knowledge dissemination about the steps being taken to ensure that consumers were not abandoned once the research project ended [@nelson2012implementationfidelityevaluation; @nelson2013planningmultisitecomplex].</t>
+  </si>
+  <si>
+    <t>Across sites, participants highlighted the importance of having a diverse group of partners in providing a comprehensive continuum of care to participants [@nelson2012implementationfidelityevaluation].</t>
+  </si>
+  <si>
+    <t>Partnerships with consumers enabled peer-driven initiatives like social gatherings, peer support programs for individuals with substance use issues, participant-produced newsletters, and participant-led focus groups on eviction prevention. Consumers could help fellow consumers and offer staff insider information about community resources [@nelson2012implementationfidelityevaluation; @nelson2014earlyimplementationevaluation].</t>
+  </si>
+  <si>
+    <t>Rent subsidies, housing team procurement strategies and community relationships were crucial in both expanding potential housing supply and achieving quicker access to housing [@macnaughton2012exploringvaluemixed].
+Collaborating with landlords, landlord associations and property management companies was beneficial for implementation. These partnerships: a) made landlords more likely to consult with service team members to resolve issues rather than notifying police or initiating eviction proceedings, and b) led to successful, high quality housing procurement [@macnaughton2015implementinghousingfirst; @nelson2012implementationfidelityevaluation; @nelson2014earlyimplementationevaluation].
+Providing consistent support to landlords, including prompt responses to problematic tenancy issues, paying for any damage, and guaranteeing rent payment, were strong incentives for landlord participation [@macnaughton2015implementinghousingfirst].</t>
+  </si>
+  <si>
+    <t>Partnerships with government agencies and departments enhanced the project’s ability to secure consumer access to housing units, mental health and homelessness services, and government income supports [@nelson2012implementationfidelityevaluation; @nelson2014earlyimplementationevaluation].
+Participants stated that local partners, including business owners, police, hospital staff, community mental health teams, shelters, meal providers, churches, the United Way, and mobile crisis teams, were crucial in contributing expertise and experience. This increased the project’s ability to integrate into the community’s network of supports and services [@nelson2012implementationfidelityevaluation; @nelson2014earlyimplementationevaluation].
+The small size of the community facilitated easier contact and collaboration with existing community service providers, enabling efficient information transfer among professionals, the public and potential participants [@nelson2012implementationfidelityevaluation].
+Training and technical assistance provided by the Mental Health Commission of Canada were responsive, fair, generous and supportive. Positive and productive communication, funding, practical guidance and training opportunities were beneficial [@nelson2012implementationfidelityevaluation; @nelson2014earlyimplementationevaluation].</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -194,13 +191,29 @@
       <name val="Aptos"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Aptos"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color theme="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8"/>
       <name val="Aptos"/>
     </font>
   </fonts>
@@ -224,19 +237,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -575,247 +588,245 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC050DBA-6886-7248-8037-FB78464392D9}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="81.6640625" customWidth="1"/>
-    <col min="3" max="3" width="41.5" customWidth="1"/>
-    <col min="4" max="4" width="40.33203125" customWidth="1"/>
-    <col min="5" max="5" width="37.83203125" customWidth="1"/>
-    <col min="6" max="6" width="46" customWidth="1"/>
-    <col min="7" max="7" width="32" customWidth="1"/>
+    <col min="2" max="2" width="52.5" customWidth="1"/>
+    <col min="3" max="3" width="60" customWidth="1"/>
+    <col min="4" max="4" width="46.1640625" customWidth="1"/>
+    <col min="5" max="5" width="46" customWidth="1"/>
+    <col min="6" max="6" width="82.83203125" customWidth="1"/>
+    <col min="7" max="7" width="57.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="284" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="289" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="6" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="G8" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="6" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="B10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4" t="s">
+      <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="221" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="7" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>